--- a/EXPORT_FILES/33ГУК.xlsx
+++ b/EXPORT_FILES/33ГУК.xlsx
@@ -321,7 +321,7 @@
     <t>${suvorov_34}</t>
   </si>
   <si>
-    <t>В 2025 ГОДУ НА 28 января 2025 г.</t>
+    <t>В 2025 ГОДУ НА 26 февраля 2025 г.</t>
   </si>
 </sst>
 </file>
@@ -1757,10 +1757,10 @@
         <f>SUM(E8:G8)</f>
       </c>
       <c r="E8" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" s="22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="21">
@@ -1884,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="AX8" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY8" s="22">
         <v>0</v>
